--- a/data/trans_dic/PCS12_SP_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3088327407093602</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4173741725138965</v>
+        <v>0.4173741725138964</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3481851570670588</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2369295561420458</v>
+        <v>0.2366085348986139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1633210025541512</v>
+        <v>0.1605447220147368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1715778813368772</v>
+        <v>0.1684787271354017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.296677459505957</v>
+        <v>0.2996233791417949</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3599097444302143</v>
+        <v>0.3631991160633063</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3011634817915934</v>
+        <v>0.3022075379957062</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2817036236783599</v>
+        <v>0.2827635480967622</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3805574198625298</v>
+        <v>0.38392660509077</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3232282210604945</v>
+        <v>0.3233541038883043</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2397393538073616</v>
+        <v>0.2404317188792519</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2380974550398319</v>
+        <v>0.2357990923860156</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3576608638043097</v>
+        <v>0.3581206690098306</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3130434522876182</v>
+        <v>0.312419562245172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2136674070608813</v>
+        <v>0.2111463621518855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2139010192154983</v>
+        <v>0.2151150465092913</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3886508231181606</v>
+        <v>0.389761980499686</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4250517806331246</v>
+        <v>0.4276637330229397</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.358511779756144</v>
+        <v>0.3581427962458032</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3387080540513336</v>
+        <v>0.3382966500789926</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4535154979109694</v>
+        <v>0.45501528587651</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3754085473311025</v>
+        <v>0.3728189910250505</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2778987437052693</v>
+        <v>0.2804104977536835</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2734097406223766</v>
+        <v>0.2718015044486038</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4123678929076269</v>
+        <v>0.4111112810026278</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1382235936635667</v>
+        <v>0.1400957611939529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1531283481832636</v>
+        <v>0.1523832344843934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1339145270804236</v>
+        <v>0.1333029772703044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2100184135483656</v>
+        <v>0.2118429265088326</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2174783133226462</v>
+        <v>0.2203334859731748</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2793033226329955</v>
+        <v>0.2774774627559952</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2196513727518637</v>
+        <v>0.2193647877803198</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.312345712019498</v>
+        <v>0.3107693612004649</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1845605760689383</v>
+        <v>0.185009220642887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2249730709122611</v>
+        <v>0.2269310135730729</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1866197737804148</v>
+        <v>0.1848297315829399</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2734496208517937</v>
+        <v>0.2720078587995401</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1812227578254852</v>
+        <v>0.1826889630257691</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.203333335017876</v>
+        <v>0.2030987590178867</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.183086898611166</v>
+        <v>0.1815807396697461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2653863865701299</v>
+        <v>0.2647018769327667</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2700501356412601</v>
+        <v>0.2729219687273274</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3366966771003113</v>
+        <v>0.3351534301591786</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2764904482969887</v>
+        <v>0.2782140525782257</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3612087238374869</v>
+        <v>0.3589329225329703</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2170476270181267</v>
+        <v>0.2177650447154892</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2662959628713839</v>
+        <v>0.2647670962520777</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2234308691668186</v>
+        <v>0.2242871593170279</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3094589494608256</v>
+        <v>0.3094281790606825</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1006424506413012</v>
+        <v>0.09887992115298433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1548066163669739</v>
+        <v>0.1536483343509125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.114080845315303</v>
+        <v>0.1150296845306368</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1515177205894477</v>
+        <v>0.150701535046383</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1947151553234142</v>
+        <v>0.1969217278604364</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2183056638740549</v>
+        <v>0.2173156665982583</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2021515042659142</v>
+        <v>0.2051276788568181</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.252888178293724</v>
+        <v>0.2514949799309175</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1509994915909983</v>
+        <v>0.1517010616571179</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1926838440413332</v>
+        <v>0.1917569977168722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1655835606896213</v>
+        <v>0.1661894416925466</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2076429180025981</v>
+        <v>0.207312786487802</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1380516270224237</v>
+        <v>0.1374610673058385</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2069776029685897</v>
+        <v>0.2073331093042919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1607720573604791</v>
+        <v>0.1620604516915035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.195410763867172</v>
+        <v>0.1967784421578047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2486594291740923</v>
+        <v>0.247580631940303</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2766231177481003</v>
+        <v>0.2773146892822487</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2690363454943711</v>
+        <v>0.2706930750784283</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2973560114390463</v>
+        <v>0.2967660325927281</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1820978471257595</v>
+        <v>0.1838179824507345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.234562748770228</v>
+        <v>0.2320900226982402</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2045978337157122</v>
+        <v>0.206586406541193</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2408025435743285</v>
+        <v>0.2408317217544707</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06724932817289102</v>
+        <v>0.06591499085186917</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1298378128377558</v>
+        <v>0.1317177779695798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1349254637793146</v>
+        <v>0.1379538590239246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.141037136583491</v>
+        <v>0.1419477738633862</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1193487951939376</v>
+        <v>0.1219697280121166</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1946775874387347</v>
+        <v>0.1964040533557959</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1637414883936159</v>
+        <v>0.1672246648313171</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1945050679160414</v>
+        <v>0.196293122432258</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09913147651280158</v>
+        <v>0.09815496690313012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.172617260845054</v>
+        <v>0.1728902132875348</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1577770943381899</v>
+        <v>0.1584670193340443</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1746033325923631</v>
+        <v>0.1737493675898003</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.121088784487287</v>
+        <v>0.1204783439669719</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1993936589743997</v>
+        <v>0.2011367723524745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2085448028166403</v>
+        <v>0.2078517462927547</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1884068056456751</v>
+        <v>0.1881453453623991</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1999438742103315</v>
+        <v>0.2063314920052932</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2779486809459165</v>
+        <v>0.2786180983392374</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2411422161014853</v>
+        <v>0.2421185947496994</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2378160984010426</v>
+        <v>0.2399293577836412</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1449843075729779</v>
+        <v>0.1437068729534253</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2232185068712026</v>
+        <v>0.2265035767884709</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2125351066964876</v>
+        <v>0.2114653096455354</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2057919171431585</v>
+        <v>0.2078600114267642</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1427134117051394</v>
+        <v>0.1439027297622674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1644597756649983</v>
+        <v>0.1650171467914308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1534156971049608</v>
+        <v>0.1529070256988642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1984165316893732</v>
+        <v>0.1981273300848482</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2537869442220054</v>
+        <v>0.2542723476281635</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2743599094623319</v>
+        <v>0.2742496372289278</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2447139374066257</v>
+        <v>0.246031975649715</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2901341190967054</v>
+        <v>0.2903604969088484</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.204501344720961</v>
+        <v>0.2038623030456116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2246027162839088</v>
+        <v>0.2253866070187689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2034225017637825</v>
+        <v>0.2049339458716581</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2493243194456389</v>
+        <v>0.250247642561696</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1680979243325118</v>
+        <v>0.1687051234991169</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1914913440146926</v>
+        <v>0.1934004674676161</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1781860180126792</v>
+        <v>0.1788728595907835</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2268200515235737</v>
+        <v>0.2269299573205331</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2854032494784919</v>
+        <v>0.2856050397619712</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3057758072788157</v>
+        <v>0.3059364087746124</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2771903430873561</v>
+        <v>0.2750135675589268</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3152737370803428</v>
+        <v>0.3161405149657976</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2246186643919427</v>
+        <v>0.2249720858787166</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2461955161723877</v>
+        <v>0.2454314287964195</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2256013310544299</v>
+        <v>0.2245861659418123</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2686079804116841</v>
+        <v>0.2688099424400682</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>138400</v>
+        <v>138213</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>170497</v>
+        <v>167598</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>193539</v>
+        <v>190043</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>146754</v>
+        <v>148211</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>331957</v>
+        <v>334991</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>337281</v>
+        <v>338451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>354823</v>
+        <v>356158</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>235567</v>
+        <v>237653</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>486935</v>
+        <v>487125</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>518763</v>
+        <v>520261</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>568471</v>
+        <v>562984</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>398314</v>
+        <v>398826</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>182862</v>
+        <v>182497</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>223055</v>
+        <v>220423</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>241280</v>
+        <v>242649</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>192250</v>
+        <v>192799</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>392039</v>
+        <v>394448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>401507</v>
+        <v>401094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>426623</v>
+        <v>426105</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>280729</v>
+        <v>281657</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>565543</v>
+        <v>561642</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>601335</v>
+        <v>606770</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>652782</v>
+        <v>648942</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>459239</v>
+        <v>457840</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>148990</v>
+        <v>151008</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>149618</v>
+        <v>148890</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>121705</v>
+        <v>121149</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>200613</v>
+        <v>202355</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>229992</v>
+        <v>233011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>305631</v>
+        <v>303633</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>221074</v>
+        <v>220785</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>346963</v>
+        <v>345212</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>394117</v>
+        <v>395075</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>465995</v>
+        <v>470050</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>357433</v>
+        <v>354004</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>564959</v>
+        <v>561980</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>195339</v>
+        <v>196919</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>198672</v>
+        <v>198442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>166394</v>
+        <v>165025</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>253501</v>
+        <v>252847</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>285588</v>
+        <v>288625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>368434</v>
+        <v>366746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>278281</v>
+        <v>280015</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>401241</v>
+        <v>398713</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>463490</v>
+        <v>465022</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>551588</v>
+        <v>548421</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>427937</v>
+        <v>429577</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>639355</v>
+        <v>639292</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>112880</v>
+        <v>110903</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>137022</v>
+        <v>135996</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>93975</v>
+        <v>94757</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>158328</v>
+        <v>157475</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>193535</v>
+        <v>195728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>191191</v>
+        <v>190324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>155871</v>
+        <v>158166</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>264398</v>
+        <v>262942</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>319445</v>
+        <v>320929</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>339299</v>
+        <v>337667</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>264076</v>
+        <v>265042</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>434069</v>
+        <v>433379</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154838</v>
+        <v>154176</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>183199</v>
+        <v>183514</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>132437</v>
+        <v>133499</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>204194</v>
+        <v>205623</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>247153</v>
+        <v>246080</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>242265</v>
+        <v>242871</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>207443</v>
+        <v>208720</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>310890</v>
+        <v>310273</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>385234</v>
+        <v>388873</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>413044</v>
+        <v>408690</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>326296</v>
+        <v>329468</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>503388</v>
+        <v>503449</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30074</v>
+        <v>29477</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>65311</v>
+        <v>66257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>68367</v>
+        <v>69901</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>136791</v>
+        <v>137674</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40717</v>
+        <v>41611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88138</v>
+        <v>88919</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>80184</v>
+        <v>81890</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>175700</v>
+        <v>177315</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>78151</v>
+        <v>77381</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>164980</v>
+        <v>165241</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>157209</v>
+        <v>157896</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>327068</v>
+        <v>325469</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54151</v>
+        <v>53878</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100300</v>
+        <v>101176</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>105670</v>
+        <v>105319</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>182734</v>
+        <v>182480</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>68212</v>
+        <v>70392</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>125837</v>
+        <v>126140</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>118087</v>
+        <v>118565</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>214823</v>
+        <v>216732</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>114300</v>
+        <v>113292</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>213343</v>
+        <v>216483</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>211770</v>
+        <v>210704</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>385491</v>
+        <v>389365</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>461083</v>
+        <v>464925</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>560667</v>
+        <v>562567</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>516594</v>
+        <v>514881</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>687455</v>
+        <v>686453</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>841296</v>
+        <v>842905</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>971981</v>
+        <v>971590</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>863055</v>
+        <v>867704</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1067307</v>
+        <v>1068140</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1338624</v>
+        <v>1334441</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1561408</v>
+        <v>1566858</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1402410</v>
+        <v>1412830</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1781017</v>
+        <v>1787612</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>543096</v>
+        <v>545057</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>652822</v>
+        <v>659330</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>600003</v>
+        <v>602315</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>785865</v>
+        <v>786246</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>946103</v>
+        <v>946772</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1083279</v>
+        <v>1083848</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>977593</v>
+        <v>969916</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1159787</v>
+        <v>1162976</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1470308</v>
+        <v>1472622</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1711518</v>
+        <v>1706207</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1555312</v>
+        <v>1548314</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1918767</v>
+        <v>1920210</v>
       </c>
     </row>
     <row r="24">
